--- a/maven_use_base/src/main/resources/excel/teachers/api_test_case_01.xlsx
+++ b/maven_use_base/src/main/resources/excel/teachers/api_test_case_01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7752" activeTab="2"/>
+    <workbookView xWindow="5235" yWindow="3600" windowWidth="15195" windowHeight="3870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试用例!$A$1:$E$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E6"/>
 </workbook>
 </file>
 
@@ -745,16 +746,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="73.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -768,7 +769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -782,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -796,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -810,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -824,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -838,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -852,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -866,7 +867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -880,7 +881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -894,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -908,7 +909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -922,7 +923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -936,7 +937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -961,21 +962,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="31.77734375" style="1"/>
+    <col min="1" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -992,7 +992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1191,16 +1191,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>

--- a/maven_use_base/src/main/resources/excel/teachers/api_test_case_01.xlsx
+++ b/maven_use_base/src/main/resources/excel/teachers/api_test_case_01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="3600" windowWidth="15195" windowHeight="3870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试用例!$A$1:$E$12</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:E6"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -218,9 +217,6 @@
     </r>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>{"status":"0","code":"20111",data:null,"msg":"用户名或者密码错误"}</t>
   </si>
   <si>
@@ -359,6 +355,10 @@
   </si>
   <si>
     <t>Gender(是否执行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualReponseData(实际响应数据)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -746,44 +746,44 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="73.44140625" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -791,13 +791,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -811,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -825,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -833,13 +833,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -853,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -895,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -909,7 +909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -923,7 +923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -937,7 +937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -960,39 +960,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="31.75" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="31.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1000,16 +1004,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1017,16 +1021,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1034,16 +1038,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>36</v>
@@ -1060,7 +1064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -1077,7 +1081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1085,16 +1089,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1102,16 +1106,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1119,16 +1123,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>46</v>
@@ -1145,24 +1149,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>48</v>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10086</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1170,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1192,45 +1196,45 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
